--- a/ApolloQA/Data/RatingManual/SC/VA00062.ClassCode_FleetSizeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00062.ClassCode_FleetSizeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.ClassCode_FleetSizeFactors" sheetId="1" r:id="R8b19a81927414606"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.ClassCode_FleetSizeFactors" sheetId="1" r:id="R56df0e2d37684bfb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -799,6 +799,20 @@
         <x:v>808</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>11</x:v>
       </x:c>
       <x:c t="str">
@@ -1569,6 +1583,20 @@
         <x:v>817</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>817</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
@@ -2339,6 +2367,20 @@
         <x:v>822</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
@@ -3109,6 +3151,20 @@
         <x:v>829</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>829</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>26</x:v>
       </x:c>
       <x:c t="str">
@@ -3879,6 +3935,20 @@
         <x:v>837</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>10</x:v>
       </x:c>
       <x:c t="str">
@@ -4649,6 +4719,20 @@
         <x:v>848</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
@@ -5419,6 +5503,20 @@
         <x:v>852</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
@@ -6179,6 +6277,20 @@
       </x:c>
       <x:c t="str">
         <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
